--- a/cots/eurobank/COTS_HV_DUMMY_BANK.xlsx
+++ b/cots/eurobank/COTS_HV_DUMMY_BANK.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="13110" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="13110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="43" r:id="rId1"/>
@@ -69,7 +69,6 @@
     <definedName name="test">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -152,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="974">
   <si>
     <t>Feature</t>
   </si>
@@ -1776,9 +1775,6 @@
     <t>Short Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Feature </t>
-  </si>
-  <si>
     <t>Tracking Status</t>
   </si>
   <si>
@@ -3538,6 +3534,92 @@
   </si>
   <si>
     <t>NON</t>
+  </si>
+  <si>
+    <t>PI_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always </t>
+  </si>
+  <si>
+    <t>Department set as ‘DEF’</t>
+  </si>
+  <si>
+    <t>• Department (rule 1) – No conditions (always)
+• Department (profile) – DEF</t>
+  </si>
+  <si>
+    <t>[X], [Y] ,[ Z] conditions are met</t>
+  </si>
+  <si>
+    <t>Payment will be assigned with product code [XXX]</t>
+  </si>
+  <si>
+    <t>Product code is derived as default</t>
+  </si>
+  <si>
+    <t>Payment will be assigned with default product code [XXX]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Product (rule 12) -No conditions
+• Product (profile)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product code is not derived </t>
+  </si>
+  <si>
+    <t>Payment will go to Repair Q.</t>
+  </si>
+  <si>
+    <t>Default Product Rule must be in place to be selected when payment does not answer any of the Product's attributes. Otherwise, the payment will be routed to REPAIR via code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Area </t>
+  </si>
+  <si>
+    <t>Payment will be assigned with Business Area  [XXX]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Business area (rule 30) 
+• Business area (profile) </t>
+  </si>
+  <si>
+    <t>Business Area is derived as default</t>
+  </si>
+  <si>
+    <t>Payment will be assigned with default Business Area  [XXX]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Business area (rule 30) -No conditions
+• Business area (profile) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Area is not derived </t>
+  </si>
+  <si>
+    <t>Default Business area rule must be in place to be selected when payment does not answer any of the bank criteria of selecting BA.  Otherwise, the payment will be routed to REPAIR via code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparing the following message attributes against messages in GPP: 
+• Orgnl sttlm amt
+• Orgnl sttlm ccy
+• Orgnl sttlm dt
+• Office
+• Orgnl Instr Id
+• Orgnl Cdtr acct Id
+• Orgnl Cdtr account IBAN
+• Orgnl msg type
+</t>
+  </si>
+  <si>
+    <t>If found as duplicate the message is sent to 'Possible duplicate' Q (DUPEX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matching Check Selection rule and Profile - 
+Matching Index
+Automatic Matching Algorithm
+</t>
   </si>
 </sst>
 </file>
@@ -4275,6 +4357,460 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.89999084444715716"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
@@ -18114,260 +18650,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -18897,860 +19179,860 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table11027813" displayName="Table11027813" ref="A16:L17" insertRow="1" totalsRowShown="0" headerRowDxfId="485" dataDxfId="484">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table11027813" displayName="Table11027813" ref="A16:L17" insertRow="1" totalsRowShown="0" headerRowDxfId="498" dataDxfId="497">
   <autoFilter ref="A16:L17"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="483"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="482"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="481"/>
-    <tableColumn id="2" name="Feature " dataDxfId="480"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="479"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="478"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="477"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="476"/>
-    <tableColumn id="1" name="Comments" dataDxfId="475"/>
-    <tableColumn id="8" name="Classification" dataDxfId="474"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="473"/>
-    <tableColumn id="13" name="Phase" dataDxfId="472"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="496"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="495"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="494"/>
+    <tableColumn id="2" name="Feature" dataDxfId="493"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="492"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="491"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="490"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="489"/>
+    <tableColumn id="1" name="Comments" dataDxfId="488"/>
+    <tableColumn id="8" name="Classification" dataDxfId="487"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="486"/>
+    <tableColumn id="13" name="Phase" dataDxfId="485"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Feature12" displayName="Feature12" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="471" dataDxfId="469" headerRowBorderDxfId="470" tableBorderDxfId="468" totalsRowBorderDxfId="467">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Feature12" displayName="Feature12" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="484" dataDxfId="482" headerRowBorderDxfId="483" tableBorderDxfId="481" totalsRowBorderDxfId="480">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="466"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="465"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="464"/>
-    <tableColumn id="1" name="Feature" dataDxfId="463"/>
-    <tableColumn id="2" name="Who" dataDxfId="462"/>
-    <tableColumn id="3" name="What" dataDxfId="461"/>
-    <tableColumn id="4" name="Why" dataDxfId="460"/>
-    <tableColumn id="5" name="How" dataDxfId="459"/>
-    <tableColumn id="6" name="Comment" dataDxfId="458"/>
-    <tableColumn id="7" name="Classification" dataDxfId="457"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="479"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="478"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="477"/>
+    <tableColumn id="1" name="Feature" dataDxfId="476"/>
+    <tableColumn id="2" name="Who" dataDxfId="475"/>
+    <tableColumn id="3" name="What" dataDxfId="474"/>
+    <tableColumn id="4" name="Why" dataDxfId="473"/>
+    <tableColumn id="5" name="How" dataDxfId="472"/>
+    <tableColumn id="6" name="Comment" dataDxfId="471"/>
+    <tableColumn id="7" name="Classification" dataDxfId="470"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table11027815" displayName="Table11027815" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="456" dataDxfId="455">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table11027815" displayName="Table11027815" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="469" dataDxfId="468">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="454"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="453"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="452"/>
-    <tableColumn id="2" name="Feature " dataDxfId="451"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="450"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="449"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="448"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="447"/>
-    <tableColumn id="1" name="Comments" dataDxfId="446"/>
-    <tableColumn id="8" name="Classification" dataDxfId="445"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="444"/>
-    <tableColumn id="13" name="Phase" dataDxfId="443"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="467"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="466"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="465"/>
+    <tableColumn id="2" name="Feature" dataDxfId="464"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="463"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="462"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="461"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="460"/>
+    <tableColumn id="1" name="Comments" dataDxfId="459"/>
+    <tableColumn id="8" name="Classification" dataDxfId="458"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="457"/>
+    <tableColumn id="13" name="Phase" dataDxfId="456"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Feature7" displayName="Feature7" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="442" dataDxfId="440" headerRowBorderDxfId="441">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Feature7" displayName="Feature7" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="455" dataDxfId="453" headerRowBorderDxfId="454">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="439"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="438"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="437"/>
-    <tableColumn id="1" name="Feature" dataDxfId="436"/>
-    <tableColumn id="2" name="Who" dataDxfId="435"/>
-    <tableColumn id="3" name="What" dataDxfId="434"/>
-    <tableColumn id="4" name="Why" dataDxfId="433"/>
-    <tableColumn id="5" name="How" dataDxfId="432"/>
-    <tableColumn id="6" name="Comment" dataDxfId="431"/>
-    <tableColumn id="7" name="Classification" dataDxfId="430"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="452"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="451"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="450"/>
+    <tableColumn id="1" name="Feature" dataDxfId="449"/>
+    <tableColumn id="2" name="Who" dataDxfId="448"/>
+    <tableColumn id="3" name="What" dataDxfId="447"/>
+    <tableColumn id="4" name="Why" dataDxfId="446"/>
+    <tableColumn id="5" name="How" dataDxfId="445"/>
+    <tableColumn id="6" name="Comment" dataDxfId="444"/>
+    <tableColumn id="7" name="Classification" dataDxfId="443"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table11027817" displayName="Table11027817" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="429" dataDxfId="428">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table11027817" displayName="Table11027817" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="442" dataDxfId="441">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="427"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="426"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="425"/>
-    <tableColumn id="2" name="Feature " dataDxfId="424"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="423"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="422"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="421"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="420"/>
-    <tableColumn id="1" name="Comments" dataDxfId="419"/>
-    <tableColumn id="8" name="Classification" dataDxfId="418"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="417"/>
-    <tableColumn id="13" name="Phase" dataDxfId="416"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="440"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="439"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="438"/>
+    <tableColumn id="2" name="Feature" dataDxfId="437"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="436"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="435"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="434"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="433"/>
+    <tableColumn id="1" name="Comments" dataDxfId="432"/>
+    <tableColumn id="8" name="Classification" dataDxfId="431"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="430"/>
+    <tableColumn id="13" name="Phase" dataDxfId="429"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Feature20" displayName="Feature20" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="415" dataDxfId="413" headerRowBorderDxfId="414">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Feature20" displayName="Feature20" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="428" dataDxfId="426" headerRowBorderDxfId="427">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="412"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="411"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="410"/>
-    <tableColumn id="1" name="Feature" dataDxfId="409"/>
-    <tableColumn id="2" name="Who" dataDxfId="408"/>
-    <tableColumn id="3" name="What" dataDxfId="407"/>
-    <tableColumn id="4" name="Why" dataDxfId="406"/>
-    <tableColumn id="5" name="How" dataDxfId="405"/>
-    <tableColumn id="6" name="Comment" dataDxfId="404"/>
-    <tableColumn id="7" name="Classification" dataDxfId="403"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="425"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="424"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="423"/>
+    <tableColumn id="1" name="Feature" dataDxfId="422"/>
+    <tableColumn id="2" name="Who" dataDxfId="421"/>
+    <tableColumn id="3" name="What" dataDxfId="420"/>
+    <tableColumn id="4" name="Why" dataDxfId="419"/>
+    <tableColumn id="5" name="How" dataDxfId="418"/>
+    <tableColumn id="6" name="Comment" dataDxfId="417"/>
+    <tableColumn id="7" name="Classification" dataDxfId="416"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table11027819" displayName="Table11027819" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="402" dataDxfId="401">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table11027819" displayName="Table11027819" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="415" dataDxfId="414">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="400"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="399"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="398"/>
-    <tableColumn id="2" name="Feature " dataDxfId="397"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="396"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="395"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="394"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="393"/>
-    <tableColumn id="1" name="Comments" dataDxfId="392"/>
-    <tableColumn id="8" name="Classification" dataDxfId="391"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="390"/>
-    <tableColumn id="13" name="Phase" dataDxfId="389"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="413"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="412"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="411"/>
+    <tableColumn id="2" name="Feature" dataDxfId="410"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="409"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="408"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="407"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="406"/>
+    <tableColumn id="1" name="Comments" dataDxfId="405"/>
+    <tableColumn id="8" name="Classification" dataDxfId="404"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="403"/>
+    <tableColumn id="13" name="Phase" dataDxfId="402"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Feature22" displayName="Feature22" ref="A1:I2" insertRow="1" totalsRowShown="0" headerRowDxfId="388" dataDxfId="386" headerRowBorderDxfId="387">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Feature22" displayName="Feature22" ref="A1:I2" insertRow="1" totalsRowShown="0" headerRowDxfId="401" dataDxfId="399" headerRowBorderDxfId="400">
   <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="385"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="384"/>
-    <tableColumn id="1" name="Short Description" dataDxfId="383"/>
-    <tableColumn id="2" name="Feature" dataDxfId="382"/>
-    <tableColumn id="3" name="Who" dataDxfId="381"/>
-    <tableColumn id="4" name="What" dataDxfId="380"/>
-    <tableColumn id="5" name="Why" dataDxfId="379"/>
-    <tableColumn id="6" name="How" dataDxfId="378"/>
-    <tableColumn id="7" name="Comment" dataDxfId="377"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="398"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="397"/>
+    <tableColumn id="1" name="Short Description" dataDxfId="396"/>
+    <tableColumn id="2" name="Feature" dataDxfId="395"/>
+    <tableColumn id="3" name="Who" dataDxfId="394"/>
+    <tableColumn id="4" name="What" dataDxfId="393"/>
+    <tableColumn id="5" name="Why" dataDxfId="392"/>
+    <tableColumn id="6" name="How" dataDxfId="391"/>
+    <tableColumn id="7" name="Comment" dataDxfId="390"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table11027821" displayName="Table11027821" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="376" dataDxfId="375">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table11027821" displayName="Table11027821" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="389" dataDxfId="388">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="374"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="373"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="372"/>
-    <tableColumn id="2" name="Feature " dataDxfId="371"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="370"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="369"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="368"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="367"/>
-    <tableColumn id="1" name="Comments" dataDxfId="366"/>
-    <tableColumn id="8" name="Classification" dataDxfId="365"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="364"/>
-    <tableColumn id="13" name="Phase" dataDxfId="363"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="387"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="386"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="385"/>
+    <tableColumn id="2" name="Feature" dataDxfId="384"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="383"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="382"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="381"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="380"/>
+    <tableColumn id="1" name="Comments" dataDxfId="379"/>
+    <tableColumn id="8" name="Classification" dataDxfId="378"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="377"/>
+    <tableColumn id="13" name="Phase" dataDxfId="376"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Feature24" displayName="Feature24" ref="A1:J10" totalsRowShown="0" headerRowDxfId="362" dataDxfId="360" headerRowBorderDxfId="361" tableBorderDxfId="359" totalsRowBorderDxfId="358">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Feature24" displayName="Feature24" ref="A1:J10" totalsRowShown="0" headerRowDxfId="375" dataDxfId="373" headerRowBorderDxfId="374" tableBorderDxfId="372" totalsRowBorderDxfId="371">
   <autoFilter ref="A1:J10"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="357"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="356"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="355"/>
-    <tableColumn id="1" name="Feature" dataDxfId="354"/>
-    <tableColumn id="2" name="Who" dataDxfId="353"/>
-    <tableColumn id="3" name="What" dataDxfId="352"/>
-    <tableColumn id="4" name="Why" dataDxfId="351"/>
-    <tableColumn id="5" name="How" dataDxfId="350"/>
-    <tableColumn id="6" name="Comment" dataDxfId="349"/>
-    <tableColumn id="7" name="Classification" dataDxfId="348"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="370"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="369"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="368"/>
+    <tableColumn id="1" name="Feature" dataDxfId="367"/>
+    <tableColumn id="2" name="Who" dataDxfId="366"/>
+    <tableColumn id="3" name="What" dataDxfId="365"/>
+    <tableColumn id="4" name="Why" dataDxfId="364"/>
+    <tableColumn id="5" name="How" dataDxfId="363"/>
+    <tableColumn id="6" name="Comment" dataDxfId="362"/>
+    <tableColumn id="7" name="Classification" dataDxfId="361"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table11027" displayName="Table11027" ref="A9:L10" insertRow="1" totalsRowShown="0" headerRowDxfId="597" dataDxfId="596">
-  <autoFilter ref="A9:L10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table11027" displayName="Table11027" ref="A9:L17" totalsRowShown="0" headerRowDxfId="597" dataDxfId="0">
+  <autoFilter ref="A9:L17"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="595"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="594"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="593"/>
-    <tableColumn id="2" name="Feature " dataDxfId="592"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="591"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="590"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="589"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="588"/>
-    <tableColumn id="1" name="Comments" dataDxfId="587"/>
-    <tableColumn id="8" name="Classification" dataDxfId="586"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="585"/>
-    <tableColumn id="13" name="Phase" dataDxfId="584"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="12"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="11"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="10"/>
+    <tableColumn id="2" name="Feature" dataDxfId="9"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="8"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="7"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="6"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="5"/>
+    <tableColumn id="1" name="Comments" dataDxfId="4"/>
+    <tableColumn id="8" name="Classification" dataDxfId="3"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="2"/>
+    <tableColumn id="13" name="Phase" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table11027823" displayName="Table11027823" ref="A13:L19" totalsRowShown="0" headerRowDxfId="347" dataDxfId="346">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table11027823" displayName="Table11027823" ref="A13:L19" totalsRowShown="0" headerRowDxfId="360" dataDxfId="359">
   <autoFilter ref="A13:L19"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="345"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="344"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="343"/>
-    <tableColumn id="2" name="Feature " dataDxfId="342"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="341"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="340"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="339"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="338"/>
-    <tableColumn id="1" name="Comments" dataDxfId="337"/>
-    <tableColumn id="8" name="Classification" dataDxfId="336"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="335"/>
-    <tableColumn id="13" name="Phase" dataDxfId="334"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="358"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="357"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="356"/>
+    <tableColumn id="2" name="Feature" dataDxfId="355"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="354"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="353"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="352"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="351"/>
+    <tableColumn id="1" name="Comments" dataDxfId="350"/>
+    <tableColumn id="8" name="Classification" dataDxfId="349"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="348"/>
+    <tableColumn id="13" name="Phase" dataDxfId="347"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="Feature55" displayName="Feature55" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="333" dataDxfId="331" headerRowBorderDxfId="332" tableBorderDxfId="330" totalsRowBorderDxfId="329">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="Feature55" displayName="Feature55" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="346" dataDxfId="344" headerRowBorderDxfId="345" tableBorderDxfId="343" totalsRowBorderDxfId="342">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="328"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="327"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="326"/>
-    <tableColumn id="1" name="Feature" dataDxfId="325"/>
-    <tableColumn id="2" name="Who" dataDxfId="324"/>
-    <tableColumn id="3" name="What" dataDxfId="323"/>
-    <tableColumn id="4" name="Why" dataDxfId="322"/>
-    <tableColumn id="5" name="How" dataDxfId="321"/>
-    <tableColumn id="6" name="Comment" dataDxfId="320"/>
-    <tableColumn id="7" name="Classification" dataDxfId="319"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="341"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="340"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="339"/>
+    <tableColumn id="1" name="Feature" dataDxfId="338"/>
+    <tableColumn id="2" name="Who" dataDxfId="337"/>
+    <tableColumn id="3" name="What" dataDxfId="336"/>
+    <tableColumn id="4" name="Why" dataDxfId="335"/>
+    <tableColumn id="5" name="How" dataDxfId="334"/>
+    <tableColumn id="6" name="Comment" dataDxfId="333"/>
+    <tableColumn id="7" name="Classification" dataDxfId="332"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table11027825" displayName="Table11027825" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="318" dataDxfId="317">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table11027825" displayName="Table11027825" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="331" dataDxfId="330">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="316"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="315"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="314"/>
-    <tableColumn id="2" name="Feature " dataDxfId="313"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="312"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="311"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="310"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="309"/>
-    <tableColumn id="1" name="Comments" dataDxfId="308"/>
-    <tableColumn id="8" name="Classification" dataDxfId="307"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="306"/>
-    <tableColumn id="13" name="Phase" dataDxfId="305"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="329"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="328"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="327"/>
+    <tableColumn id="2" name="Feature" dataDxfId="326"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="325"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="324"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="323"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="322"/>
+    <tableColumn id="1" name="Comments" dataDxfId="321"/>
+    <tableColumn id="8" name="Classification" dataDxfId="320"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="319"/>
+    <tableColumn id="13" name="Phase" dataDxfId="318"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Feature26" displayName="Feature26" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="304" dataDxfId="302" headerRowBorderDxfId="303">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Feature26" displayName="Feature26" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="317" dataDxfId="315" headerRowBorderDxfId="316">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="301"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="300"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="299"/>
-    <tableColumn id="1" name="Feature" dataDxfId="298"/>
-    <tableColumn id="2" name="Who" dataDxfId="297"/>
-    <tableColumn id="3" name="What" dataDxfId="296"/>
-    <tableColumn id="4" name="Why" dataDxfId="295"/>
-    <tableColumn id="5" name="How" dataDxfId="294"/>
-    <tableColumn id="6" name="Comment" dataDxfId="293"/>
-    <tableColumn id="7" name="Classification" dataDxfId="292"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="314"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="313"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="312"/>
+    <tableColumn id="1" name="Feature" dataDxfId="311"/>
+    <tableColumn id="2" name="Who" dataDxfId="310"/>
+    <tableColumn id="3" name="What" dataDxfId="309"/>
+    <tableColumn id="4" name="Why" dataDxfId="308"/>
+    <tableColumn id="5" name="How" dataDxfId="307"/>
+    <tableColumn id="6" name="Comment" dataDxfId="306"/>
+    <tableColumn id="7" name="Classification" dataDxfId="305"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table11027827" displayName="Table11027827" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="291" dataDxfId="290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table11027827" displayName="Table11027827" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="304" dataDxfId="303">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="289"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="288"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="287"/>
-    <tableColumn id="2" name="Feature " dataDxfId="286"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="285"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="284"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="283"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="282"/>
-    <tableColumn id="1" name="Comments" dataDxfId="281"/>
-    <tableColumn id="8" name="Classification" dataDxfId="280"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="279"/>
-    <tableColumn id="13" name="Phase" dataDxfId="278"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="302"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="301"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="300"/>
+    <tableColumn id="2" name="Feature" dataDxfId="299"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="298"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="297"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="296"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="295"/>
+    <tableColumn id="1" name="Comments" dataDxfId="294"/>
+    <tableColumn id="8" name="Classification" dataDxfId="293"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="292"/>
+    <tableColumn id="13" name="Phase" dataDxfId="291"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Feature30" displayName="Feature30" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="277" dataDxfId="275" headerRowBorderDxfId="276">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Feature30" displayName="Feature30" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="290" dataDxfId="288" headerRowBorderDxfId="289">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="274"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="273"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="272"/>
-    <tableColumn id="1" name="Feature" dataDxfId="271"/>
-    <tableColumn id="2" name="Who" dataDxfId="270"/>
-    <tableColumn id="3" name="What" dataDxfId="269"/>
-    <tableColumn id="4" name="Why" dataDxfId="268"/>
-    <tableColumn id="5" name="How" dataDxfId="267"/>
-    <tableColumn id="6" name="Comment" dataDxfId="266"/>
-    <tableColumn id="7" name="Classification" dataDxfId="265"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="287"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="286"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="285"/>
+    <tableColumn id="1" name="Feature" dataDxfId="284"/>
+    <tableColumn id="2" name="Who" dataDxfId="283"/>
+    <tableColumn id="3" name="What" dataDxfId="282"/>
+    <tableColumn id="4" name="Why" dataDxfId="281"/>
+    <tableColumn id="5" name="How" dataDxfId="280"/>
+    <tableColumn id="6" name="Comment" dataDxfId="279"/>
+    <tableColumn id="7" name="Classification" dataDxfId="278"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table11027829" displayName="Table11027829" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="264" dataDxfId="263">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table11027829" displayName="Table11027829" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="277" dataDxfId="276">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="262"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="261"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="260"/>
-    <tableColumn id="2" name="Feature " dataDxfId="259"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="258"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="257"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="256"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="255"/>
-    <tableColumn id="1" name="Comments" dataDxfId="254"/>
-    <tableColumn id="8" name="Classification" dataDxfId="253"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="252"/>
-    <tableColumn id="13" name="Phase" dataDxfId="251"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="275"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="274"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="273"/>
+    <tableColumn id="2" name="Feature" dataDxfId="272"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="271"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="270"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="269"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="268"/>
+    <tableColumn id="1" name="Comments" dataDxfId="267"/>
+    <tableColumn id="8" name="Classification" dataDxfId="266"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="265"/>
+    <tableColumn id="13" name="Phase" dataDxfId="264"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Feature35" displayName="Feature35" ref="A1:J10" totalsRowShown="0" headerRowDxfId="250" dataDxfId="248" headerRowBorderDxfId="249">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Feature35" displayName="Feature35" ref="A1:J10" totalsRowShown="0" headerRowDxfId="263" dataDxfId="261" headerRowBorderDxfId="262">
   <autoFilter ref="A1:J10"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="247"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="246"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="245"/>
-    <tableColumn id="1" name="Feature" dataDxfId="244"/>
-    <tableColumn id="2" name="Who" dataDxfId="243"/>
-    <tableColumn id="3" name="What" dataDxfId="242"/>
-    <tableColumn id="4" name="Why" dataDxfId="241"/>
-    <tableColumn id="5" name="How" dataDxfId="240"/>
-    <tableColumn id="6" name="Comment" dataDxfId="239"/>
-    <tableColumn id="7" name="Classification" dataDxfId="238"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="260"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="259"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="258"/>
+    <tableColumn id="1" name="Feature" dataDxfId="257"/>
+    <tableColumn id="2" name="Who" dataDxfId="256"/>
+    <tableColumn id="3" name="What" dataDxfId="255"/>
+    <tableColumn id="4" name="Why" dataDxfId="254"/>
+    <tableColumn id="5" name="How" dataDxfId="253"/>
+    <tableColumn id="6" name="Comment" dataDxfId="252"/>
+    <tableColumn id="7" name="Classification" dataDxfId="251"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table11027831" displayName="Table11027831" ref="A13:L14" insertRow="1" totalsRowShown="0" headerRowDxfId="237" dataDxfId="236">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table11027831" displayName="Table11027831" ref="A13:L14" insertRow="1" totalsRowShown="0" headerRowDxfId="250" dataDxfId="249">
   <autoFilter ref="A13:L14"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="235"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="234"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="233"/>
-    <tableColumn id="2" name="Feature " dataDxfId="232"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="231"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="230"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="229"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="228"/>
-    <tableColumn id="1" name="Comments" dataDxfId="227"/>
-    <tableColumn id="8" name="Classification" dataDxfId="226"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="225"/>
-    <tableColumn id="13" name="Phase" dataDxfId="224"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="248"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="247"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="246"/>
+    <tableColumn id="2" name="Feature" dataDxfId="245"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="244"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="243"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="242"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="241"/>
+    <tableColumn id="1" name="Comments" dataDxfId="240"/>
+    <tableColumn id="8" name="Classification" dataDxfId="239"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="238"/>
+    <tableColumn id="13" name="Phase" dataDxfId="237"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Feature37" displayName="Feature37" ref="A1:J16" totalsRowShown="0" headerRowDxfId="223" dataDxfId="221" headerRowBorderDxfId="222">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Feature37" displayName="Feature37" ref="A1:J16" totalsRowShown="0" headerRowDxfId="236" dataDxfId="234" headerRowBorderDxfId="235">
   <autoFilter ref="A1:J16"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="220"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="219"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="218"/>
-    <tableColumn id="1" name="Feature" dataDxfId="217"/>
-    <tableColumn id="2" name="Who" dataDxfId="216"/>
-    <tableColumn id="3" name="What" dataDxfId="215"/>
-    <tableColumn id="4" name="Why" dataDxfId="214"/>
-    <tableColumn id="5" name="How" dataDxfId="213"/>
-    <tableColumn id="6" name="Comment" dataDxfId="212"/>
-    <tableColumn id="7" name="Classification" dataDxfId="211"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="233"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="232"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="231"/>
+    <tableColumn id="1" name="Feature" dataDxfId="230"/>
+    <tableColumn id="2" name="Who" dataDxfId="229"/>
+    <tableColumn id="3" name="What" dataDxfId="228"/>
+    <tableColumn id="4" name="Why" dataDxfId="227"/>
+    <tableColumn id="5" name="How" dataDxfId="226"/>
+    <tableColumn id="6" name="Comment" dataDxfId="225"/>
+    <tableColumn id="7" name="Classification" dataDxfId="224"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Feature14" displayName="Feature14" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="583" dataDxfId="581" headerRowBorderDxfId="582" tableBorderDxfId="580" totalsRowBorderDxfId="579">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Feature14" displayName="Feature14" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="596" dataDxfId="594" headerRowBorderDxfId="595" tableBorderDxfId="593" totalsRowBorderDxfId="592">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="578"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="577"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="576"/>
-    <tableColumn id="1" name="Feature" dataDxfId="575"/>
-    <tableColumn id="2" name="Who" dataDxfId="574"/>
-    <tableColumn id="3" name="What" dataDxfId="573"/>
-    <tableColumn id="4" name="Why" dataDxfId="572"/>
-    <tableColumn id="5" name="How" dataDxfId="571"/>
-    <tableColumn id="6" name="Comment" dataDxfId="570"/>
-    <tableColumn id="7" name="Classification" dataDxfId="569"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="591"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="590"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="589"/>
+    <tableColumn id="1" name="Feature" dataDxfId="588"/>
+    <tableColumn id="2" name="Who" dataDxfId="587"/>
+    <tableColumn id="3" name="What" dataDxfId="586"/>
+    <tableColumn id="4" name="Why" dataDxfId="585"/>
+    <tableColumn id="5" name="How" dataDxfId="584"/>
+    <tableColumn id="6" name="Comment" dataDxfId="583"/>
+    <tableColumn id="7" name="Classification" dataDxfId="582"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table11027832" displayName="Table11027832" ref="A19:L20" insertRow="1" totalsRowShown="0" headerRowDxfId="210" dataDxfId="209">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table11027832" displayName="Table11027832" ref="A19:L20" insertRow="1" totalsRowShown="0" headerRowDxfId="223" dataDxfId="222">
   <autoFilter ref="A19:L20"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="208"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="207"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="206"/>
-    <tableColumn id="2" name="Feature " dataDxfId="205"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="204"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="203"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="202"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="201"/>
-    <tableColumn id="1" name="Comments" dataDxfId="200"/>
-    <tableColumn id="8" name="Classification" dataDxfId="199"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="198"/>
-    <tableColumn id="13" name="Phase" dataDxfId="197"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="221"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="220"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="219"/>
+    <tableColumn id="2" name="Feature" dataDxfId="218"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="217"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="216"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="215"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="214"/>
+    <tableColumn id="1" name="Comments" dataDxfId="213"/>
+    <tableColumn id="8" name="Classification" dataDxfId="212"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="211"/>
+    <tableColumn id="13" name="Phase" dataDxfId="210"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Feature39" displayName="Feature39" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="196" dataDxfId="194" headerRowBorderDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Feature39" displayName="Feature39" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="209" dataDxfId="207" headerRowBorderDxfId="208">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="193"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="192"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="191"/>
-    <tableColumn id="1" name="Feature" dataDxfId="190"/>
-    <tableColumn id="2" name="Who" dataDxfId="189"/>
-    <tableColumn id="3" name="What" dataDxfId="188"/>
-    <tableColumn id="4" name="Why" dataDxfId="187"/>
-    <tableColumn id="5" name="How" dataDxfId="186"/>
-    <tableColumn id="6" name="Comment" dataDxfId="185"/>
-    <tableColumn id="7" name="Classification" dataDxfId="184"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="206"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="205"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="204"/>
+    <tableColumn id="1" name="Feature" dataDxfId="203"/>
+    <tableColumn id="2" name="Who" dataDxfId="202"/>
+    <tableColumn id="3" name="What" dataDxfId="201"/>
+    <tableColumn id="4" name="Why" dataDxfId="200"/>
+    <tableColumn id="5" name="How" dataDxfId="199"/>
+    <tableColumn id="6" name="Comment" dataDxfId="198"/>
+    <tableColumn id="7" name="Classification" dataDxfId="197"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table11027833" displayName="Table11027833" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="183" dataDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table11027833" displayName="Table11027833" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="196" dataDxfId="195">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="181"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="180"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="179"/>
-    <tableColumn id="2" name="Feature " dataDxfId="178"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="177"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="176"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="175"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="174"/>
-    <tableColumn id="1" name="Comments" dataDxfId="173"/>
-    <tableColumn id="8" name="Classification" dataDxfId="172"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="171"/>
-    <tableColumn id="13" name="Phase" dataDxfId="170"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="194"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="193"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="192"/>
+    <tableColumn id="2" name="Feature" dataDxfId="191"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="190"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="189"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="188"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="187"/>
+    <tableColumn id="1" name="Comments" dataDxfId="186"/>
+    <tableColumn id="8" name="Classification" dataDxfId="185"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="184"/>
+    <tableColumn id="13" name="Phase" dataDxfId="183"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Feature54" displayName="Feature54" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="169" dataDxfId="167" headerRowBorderDxfId="168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Feature54" displayName="Feature54" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="182" dataDxfId="180" headerRowBorderDxfId="181">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="166"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="165"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="164"/>
-    <tableColumn id="1" name="Feature" dataDxfId="163"/>
-    <tableColumn id="2" name="Who" dataDxfId="162"/>
-    <tableColumn id="3" name="What" dataDxfId="161"/>
-    <tableColumn id="4" name="Why" dataDxfId="160"/>
-    <tableColumn id="5" name="How" dataDxfId="159"/>
-    <tableColumn id="6" name="Comment" dataDxfId="158"/>
-    <tableColumn id="7" name="Classification" dataDxfId="157"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="179"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="178"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="177"/>
+    <tableColumn id="1" name="Feature" dataDxfId="176"/>
+    <tableColumn id="2" name="Who" dataDxfId="175"/>
+    <tableColumn id="3" name="What" dataDxfId="174"/>
+    <tableColumn id="4" name="Why" dataDxfId="173"/>
+    <tableColumn id="5" name="How" dataDxfId="172"/>
+    <tableColumn id="6" name="Comment" dataDxfId="171"/>
+    <tableColumn id="7" name="Classification" dataDxfId="170"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table11027834" displayName="Table11027834" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table11027834" displayName="Table11027834" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="154"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="153"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="152"/>
-    <tableColumn id="2" name="Feature " dataDxfId="151"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="150"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="149"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="148"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="147"/>
-    <tableColumn id="1" name="Comments" dataDxfId="146"/>
-    <tableColumn id="8" name="Classification" dataDxfId="145"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="144"/>
-    <tableColumn id="13" name="Phase" dataDxfId="143"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="167"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="166"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="165"/>
+    <tableColumn id="2" name="Feature" dataDxfId="164"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="163"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="162"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="161"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="160"/>
+    <tableColumn id="1" name="Comments" dataDxfId="159"/>
+    <tableColumn id="8" name="Classification" dataDxfId="158"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="157"/>
+    <tableColumn id="13" name="Phase" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Feature38" displayName="Feature38" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="142" dataDxfId="140" headerRowBorderDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Feature38" displayName="Feature38" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="155" dataDxfId="153" headerRowBorderDxfId="154">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="139"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="138"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="137"/>
-    <tableColumn id="1" name="Feature" dataDxfId="136"/>
-    <tableColumn id="2" name="Who" dataDxfId="135"/>
-    <tableColumn id="3" name="What" dataDxfId="134"/>
-    <tableColumn id="4" name="Why" dataDxfId="133"/>
-    <tableColumn id="5" name="How" dataDxfId="132"/>
-    <tableColumn id="6" name="Comment" dataDxfId="131"/>
-    <tableColumn id="7" name="Classification" dataDxfId="130"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="152"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="151"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="150"/>
+    <tableColumn id="1" name="Feature" dataDxfId="149"/>
+    <tableColumn id="2" name="Who" dataDxfId="148"/>
+    <tableColumn id="3" name="What" dataDxfId="147"/>
+    <tableColumn id="4" name="Why" dataDxfId="146"/>
+    <tableColumn id="5" name="How" dataDxfId="145"/>
+    <tableColumn id="6" name="Comment" dataDxfId="144"/>
+    <tableColumn id="7" name="Classification" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table11027836" displayName="Table11027836" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table11027836" displayName="Table11027836" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="127"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="126"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="125"/>
-    <tableColumn id="2" name="Feature " dataDxfId="124"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="123"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="122"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="121"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="120"/>
-    <tableColumn id="1" name="Comments" dataDxfId="119"/>
-    <tableColumn id="8" name="Classification" dataDxfId="118"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="117"/>
-    <tableColumn id="13" name="Phase" dataDxfId="116"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="140"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="139"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="138"/>
+    <tableColumn id="2" name="Feature" dataDxfId="137"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="136"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="135"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="134"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="133"/>
+    <tableColumn id="1" name="Comments" dataDxfId="132"/>
+    <tableColumn id="8" name="Classification" dataDxfId="131"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="130"/>
+    <tableColumn id="13" name="Phase" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2282" displayName="Table2282" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="115" dataDxfId="113" headerRowBorderDxfId="114" tableBorderDxfId="112" totalsRowBorderDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2282" displayName="Table2282" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="128" dataDxfId="126" headerRowBorderDxfId="127" tableBorderDxfId="125" totalsRowBorderDxfId="124">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="110"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="109"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="108"/>
-    <tableColumn id="1" name="Feature" dataDxfId="107"/>
-    <tableColumn id="2" name="Who" dataDxfId="106"/>
-    <tableColumn id="3" name="What" dataDxfId="105"/>
-    <tableColumn id="4" name="Why" dataDxfId="104"/>
-    <tableColumn id="5" name="How" dataDxfId="103"/>
-    <tableColumn id="6" name="Comment" dataDxfId="102"/>
-    <tableColumn id="7" name="Classification" dataDxfId="101"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="123"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="122"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="121"/>
+    <tableColumn id="1" name="Feature" dataDxfId="120"/>
+    <tableColumn id="2" name="Who" dataDxfId="119"/>
+    <tableColumn id="3" name="What" dataDxfId="118"/>
+    <tableColumn id="4" name="Why" dataDxfId="117"/>
+    <tableColumn id="5" name="How" dataDxfId="116"/>
+    <tableColumn id="6" name="Comment" dataDxfId="115"/>
+    <tableColumn id="7" name="Classification" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table11027838" displayName="Table11027838" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table11027838" displayName="Table11027838" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="98"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="97"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="96"/>
-    <tableColumn id="2" name="Feature " dataDxfId="95"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="94"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="93"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="92"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="91"/>
-    <tableColumn id="1" name="Comments" dataDxfId="90"/>
-    <tableColumn id="8" name="Classification" dataDxfId="89"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="88"/>
-    <tableColumn id="13" name="Phase" dataDxfId="87"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="111"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="110"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="109"/>
+    <tableColumn id="2" name="Feature" dataDxfId="108"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="107"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="106"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="105"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="104"/>
+    <tableColumn id="1" name="Comments" dataDxfId="103"/>
+    <tableColumn id="8" name="Classification" dataDxfId="102"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="101"/>
+    <tableColumn id="13" name="Phase" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table22823" displayName="Table22823" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table22823" displayName="Table22823" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="99" dataDxfId="97" headerRowBorderDxfId="98" tableBorderDxfId="96" totalsRowBorderDxfId="95">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="81"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="80"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="79"/>
-    <tableColumn id="1" name="Feature" dataDxfId="78"/>
-    <tableColumn id="2" name="Who" dataDxfId="77"/>
-    <tableColumn id="3" name="What" dataDxfId="76"/>
-    <tableColumn id="4" name="Why" dataDxfId="75"/>
-    <tableColumn id="5" name="How" dataDxfId="74"/>
-    <tableColumn id="6" name="Comment" dataDxfId="73"/>
-    <tableColumn id="7" name="Classification" dataDxfId="72"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="94"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="93"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="92"/>
+    <tableColumn id="1" name="Feature" dataDxfId="91"/>
+    <tableColumn id="2" name="Who" dataDxfId="90"/>
+    <tableColumn id="3" name="What" dataDxfId="89"/>
+    <tableColumn id="4" name="Why" dataDxfId="88"/>
+    <tableColumn id="5" name="How" dataDxfId="87"/>
+    <tableColumn id="6" name="Comment" dataDxfId="86"/>
+    <tableColumn id="7" name="Classification" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table110278" displayName="Table110278" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="568" dataDxfId="567">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table110278" displayName="Table110278" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="581" dataDxfId="580">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="566"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="565"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="564"/>
-    <tableColumn id="2" name="Feature " dataDxfId="563"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="562"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="561"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="560"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="559"/>
-    <tableColumn id="1" name="Comments" dataDxfId="558"/>
-    <tableColumn id="8" name="Classification" dataDxfId="557"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="556"/>
-    <tableColumn id="13" name="Phase" dataDxfId="555"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="579"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="578"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="577"/>
+    <tableColumn id="2" name="Feature" dataDxfId="576"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="575"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="574"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="573"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="572"/>
+    <tableColumn id="1" name="Comments" dataDxfId="571"/>
+    <tableColumn id="8" name="Classification" dataDxfId="570"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="569"/>
+    <tableColumn id="13" name="Phase" dataDxfId="568"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Table11027840" displayName="Table11027840" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Table11027840" displayName="Table11027840" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="69"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="68"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="67"/>
-    <tableColumn id="2" name="Feature " dataDxfId="66"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="65"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="64"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="63"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="62"/>
-    <tableColumn id="1" name="Comments" dataDxfId="61"/>
-    <tableColumn id="8" name="Classification" dataDxfId="60"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="59"/>
-    <tableColumn id="13" name="Phase" dataDxfId="58"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="82"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="81"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="80"/>
+    <tableColumn id="2" name="Feature" dataDxfId="79"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="78"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="77"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="76"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="75"/>
+    <tableColumn id="1" name="Comments" dataDxfId="74"/>
+    <tableColumn id="8" name="Classification" dataDxfId="73"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="72"/>
+    <tableColumn id="13" name="Phase" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table22824" displayName="Table22824" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table22824" displayName="Table22824" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="66">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="52"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="51"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="50"/>
-    <tableColumn id="1" name="Feature" dataDxfId="49"/>
-    <tableColumn id="2" name="Who" dataDxfId="48"/>
-    <tableColumn id="3" name="What" dataDxfId="47"/>
-    <tableColumn id="4" name="Why" dataDxfId="46"/>
-    <tableColumn id="5" name="How" dataDxfId="45"/>
-    <tableColumn id="6" name="Comment" dataDxfId="44"/>
-    <tableColumn id="7" name="Classification" dataDxfId="43"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="65"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="64"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="63"/>
+    <tableColumn id="1" name="Feature" dataDxfId="62"/>
+    <tableColumn id="2" name="Who" dataDxfId="61"/>
+    <tableColumn id="3" name="What" dataDxfId="60"/>
+    <tableColumn id="4" name="Why" dataDxfId="59"/>
+    <tableColumn id="5" name="How" dataDxfId="58"/>
+    <tableColumn id="6" name="Comment" dataDxfId="57"/>
+    <tableColumn id="7" name="Classification" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Table11027841" displayName="Table11027841" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Table11027841" displayName="Table11027841" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A5:L6"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="40"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="39"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="38"/>
-    <tableColumn id="2" name="Feature " dataDxfId="37"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="36"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="35"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="34"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="33"/>
-    <tableColumn id="1" name="Comments" dataDxfId="32"/>
-    <tableColumn id="8" name="Classification" dataDxfId="31"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="30"/>
-    <tableColumn id="13" name="Phase" dataDxfId="29"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="53"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="52"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="51"/>
+    <tableColumn id="2" name="Feature" dataDxfId="50"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="49"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="48"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="47"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="46"/>
+    <tableColumn id="1" name="Comments" dataDxfId="45"/>
+    <tableColumn id="8" name="Classification" dataDxfId="44"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="43"/>
+    <tableColumn id="13" name="Phase" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table228245" displayName="Table228245" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table228245" displayName="Table228245" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="23"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="22"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="21"/>
-    <tableColumn id="1" name="Feature" dataDxfId="20"/>
-    <tableColumn id="2" name="Who" dataDxfId="19"/>
-    <tableColumn id="3" name="What" dataDxfId="18"/>
-    <tableColumn id="4" name="Why" dataDxfId="17"/>
-    <tableColumn id="5" name="How" dataDxfId="16"/>
-    <tableColumn id="6" name="Comment" dataDxfId="15"/>
-    <tableColumn id="7" name="Classification" dataDxfId="14"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="36"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="35"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="34"/>
+    <tableColumn id="1" name="Feature" dataDxfId="33"/>
+    <tableColumn id="2" name="Who" dataDxfId="32"/>
+    <tableColumn id="3" name="What" dataDxfId="31"/>
+    <tableColumn id="4" name="Why" dataDxfId="30"/>
+    <tableColumn id="5" name="How" dataDxfId="29"/>
+    <tableColumn id="6" name="Comment" dataDxfId="28"/>
+    <tableColumn id="7" name="Classification" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table11027842" displayName="Table11027842" ref="A5:L23" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table11027842" displayName="Table11027842" ref="A5:L23" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A5:L23"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="11"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="10"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="9"/>
-    <tableColumn id="2" name="Feature " dataDxfId="8"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="7"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="6"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="5"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="4"/>
-    <tableColumn id="1" name="Comments" dataDxfId="3"/>
-    <tableColumn id="8" name="Classification" dataDxfId="2"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="1"/>
-    <tableColumn id="13" name="Phase" dataDxfId="0"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="24"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="23"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="22"/>
+    <tableColumn id="2" name="Feature" dataDxfId="21"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="20"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="19"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="18"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="17"/>
+    <tableColumn id="1" name="Comments" dataDxfId="16"/>
+    <tableColumn id="8" name="Classification" dataDxfId="15"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="14"/>
+    <tableColumn id="13" name="Phase" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Feature16" displayName="Feature16" ref="A1:J8" totalsRowShown="0" headerRowDxfId="554" dataDxfId="552" headerRowBorderDxfId="553" tableBorderDxfId="551" totalsRowBorderDxfId="550">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Feature16" displayName="Feature16" ref="A1:J8" totalsRowShown="0" headerRowDxfId="567" dataDxfId="565" headerRowBorderDxfId="566" tableBorderDxfId="564" totalsRowBorderDxfId="563">
   <autoFilter ref="A1:J8"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="549"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="548"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="547"/>
-    <tableColumn id="1" name="Feature" dataDxfId="546"/>
-    <tableColumn id="2" name="Who" dataDxfId="545"/>
-    <tableColumn id="3" name="What" dataDxfId="544"/>
-    <tableColumn id="4" name="Why" dataDxfId="543"/>
-    <tableColumn id="5" name="How" dataDxfId="542"/>
-    <tableColumn id="6" name="Comment" dataDxfId="541"/>
-    <tableColumn id="7" name="Classification" dataDxfId="540"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="562"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="561"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="560"/>
+    <tableColumn id="1" name="Feature" dataDxfId="559"/>
+    <tableColumn id="2" name="Who" dataDxfId="558"/>
+    <tableColumn id="3" name="What" dataDxfId="557"/>
+    <tableColumn id="4" name="Why" dataDxfId="556"/>
+    <tableColumn id="5" name="How" dataDxfId="555"/>
+    <tableColumn id="6" name="Comment" dataDxfId="554"/>
+    <tableColumn id="7" name="Classification" dataDxfId="553"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1102789" displayName="Table1102789" ref="A11:L12" insertRow="1" totalsRowShown="0" headerRowDxfId="539" dataDxfId="538">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1102789" displayName="Table1102789" ref="A11:L12" insertRow="1" totalsRowShown="0" headerRowDxfId="552" dataDxfId="551">
   <autoFilter ref="A11:L12"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="537"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="536"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="535"/>
-    <tableColumn id="2" name="Feature " dataDxfId="534"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="533"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="532"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="531"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="530"/>
-    <tableColumn id="1" name="Comments" dataDxfId="529"/>
-    <tableColumn id="8" name="Classification" dataDxfId="528"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="527"/>
-    <tableColumn id="13" name="Phase" dataDxfId="526"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="550"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="549"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="548"/>
+    <tableColumn id="2" name="Feature" dataDxfId="547"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="546"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="545"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="544"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="543"/>
+    <tableColumn id="1" name="Comments" dataDxfId="542"/>
+    <tableColumn id="8" name="Classification" dataDxfId="541"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="540"/>
+    <tableColumn id="13" name="Phase" dataDxfId="539"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Feature11" displayName="Feature11" ref="A1:J27" totalsRowShown="0" headerRowDxfId="525" dataDxfId="523" headerRowBorderDxfId="524">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Feature11" displayName="Feature11" ref="A1:J27" totalsRowShown="0" headerRowDxfId="538" dataDxfId="536" headerRowBorderDxfId="537">
   <autoFilter ref="A1:J27"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="522"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="521"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="520"/>
-    <tableColumn id="1" name="Feature" dataDxfId="519"/>
-    <tableColumn id="2" name="Who" dataDxfId="518"/>
-    <tableColumn id="3" name="What" dataDxfId="517"/>
-    <tableColumn id="4" name="Why" dataDxfId="516"/>
-    <tableColumn id="5" name="How" dataDxfId="515"/>
-    <tableColumn id="6" name="Comment" dataDxfId="514"/>
-    <tableColumn id="7" name="Classification" dataDxfId="513"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="535"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="534"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="533"/>
+    <tableColumn id="1" name="Feature" dataDxfId="532"/>
+    <tableColumn id="2" name="Who" dataDxfId="531"/>
+    <tableColumn id="3" name="What" dataDxfId="530"/>
+    <tableColumn id="4" name="Why" dataDxfId="529"/>
+    <tableColumn id="5" name="How" dataDxfId="528"/>
+    <tableColumn id="6" name="Comment" dataDxfId="527"/>
+    <tableColumn id="7" name="Classification" dataDxfId="526"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table11027810" displayName="Table11027810" ref="A30:L32" totalsRowShown="0" headerRowDxfId="512" dataDxfId="511">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table11027810" displayName="Table11027810" ref="A30:L32" totalsRowShown="0" headerRowDxfId="525" dataDxfId="524">
   <autoFilter ref="A30:L32"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Customer Ref#" dataDxfId="510"/>
-    <tableColumn id="7" name="D+H Ref#" dataDxfId="509"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="508"/>
-    <tableColumn id="2" name="Feature " dataDxfId="507"/>
-    <tableColumn id="3" name="Given initial condition " dataDxfId="506"/>
-    <tableColumn id="4" name="When to trigger" dataDxfId="505"/>
-    <tableColumn id="5" name="Then expected result" dataDxfId="504"/>
-    <tableColumn id="6" name="How to setup" dataDxfId="503"/>
-    <tableColumn id="1" name="Comments" dataDxfId="502"/>
-    <tableColumn id="8" name="Classification" dataDxfId="501"/>
-    <tableColumn id="12" name="Tracking Status" dataDxfId="500"/>
-    <tableColumn id="13" name="Phase" dataDxfId="499"/>
+    <tableColumn id="9" name="Customer Ref#" dataDxfId="523"/>
+    <tableColumn id="7" name="D+H Ref#" dataDxfId="522"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="521"/>
+    <tableColumn id="2" name="Feature" dataDxfId="520"/>
+    <tableColumn id="3" name="Given initial condition " dataDxfId="519"/>
+    <tableColumn id="4" name="When to trigger" dataDxfId="518"/>
+    <tableColumn id="5" name="Then expected result" dataDxfId="517"/>
+    <tableColumn id="6" name="How to setup" dataDxfId="516"/>
+    <tableColumn id="1" name="Comments" dataDxfId="515"/>
+    <tableColumn id="8" name="Classification" dataDxfId="514"/>
+    <tableColumn id="12" name="Tracking Status" dataDxfId="513"/>
+    <tableColumn id="13" name="Phase" dataDxfId="512"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Feature18" displayName="Feature18" ref="A1:J13" totalsRowShown="0" headerRowDxfId="498" dataDxfId="496" headerRowBorderDxfId="497">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Feature18" displayName="Feature18" ref="A1:J13" totalsRowShown="0" headerRowDxfId="511" dataDxfId="509" headerRowBorderDxfId="510">
   <autoFilter ref="A1:J13"/>
   <tableColumns count="10">
-    <tableColumn id="9" name="BG Ref#" dataDxfId="495"/>
-    <tableColumn id="8" name="UG Ref#" dataDxfId="494"/>
-    <tableColumn id="10" name="Short Description" dataDxfId="493"/>
-    <tableColumn id="1" name="Feature" dataDxfId="492"/>
-    <tableColumn id="2" name="Who" dataDxfId="491"/>
-    <tableColumn id="3" name="What" dataDxfId="490"/>
-    <tableColumn id="4" name="Why" dataDxfId="489"/>
-    <tableColumn id="5" name="How" dataDxfId="488"/>
-    <tableColumn id="6" name="Comment" dataDxfId="487"/>
-    <tableColumn id="7" name="Classification" dataDxfId="486"/>
+    <tableColumn id="9" name="BG Ref#" dataDxfId="508"/>
+    <tableColumn id="8" name="UG Ref#" dataDxfId="507"/>
+    <tableColumn id="10" name="Short Description" dataDxfId="506"/>
+    <tableColumn id="1" name="Feature" dataDxfId="505"/>
+    <tableColumn id="2" name="Who" dataDxfId="504"/>
+    <tableColumn id="3" name="What" dataDxfId="503"/>
+    <tableColumn id="4" name="Why" dataDxfId="502"/>
+    <tableColumn id="5" name="How" dataDxfId="501"/>
+    <tableColumn id="6" name="Comment" dataDxfId="500"/>
+    <tableColumn id="7" name="Classification" dataDxfId="499"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20040,7 +20322,7 @@
   <sheetData>
     <row r="2" spans="5:7" ht="20.25" x14ac:dyDescent="0.2">
       <c r="E2" s="93" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F2" s="93"/>
       <c r="G2" s="93"/>
@@ -20052,46 +20334,46 @@
     </row>
     <row r="4" spans="5:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="92" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G4" s="91"/>
     </row>
     <row r="5" spans="5:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" s="92" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G5" s="91"/>
     </row>
     <row r="6" spans="5:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E6" s="92" t="s">
+        <v>947</v>
+      </c>
+      <c r="F6" s="90" t="s">
         <v>948</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>949</v>
       </c>
       <c r="G6" s="91"/>
     </row>
     <row r="7" spans="5:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="92" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G7" s="91"/>
     </row>
     <row r="8" spans="5:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="92" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F8" s="90" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G8" s="91"/>
     </row>
@@ -20102,1807 +20384,1807 @@
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H37" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I40" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H41" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I41" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I43" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I44" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I45" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H46" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H47" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I48" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H49" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I49" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H50" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I50" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H51" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I51" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H52" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I52" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H53" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I53" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I54" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H55" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H56" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I56" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H57" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I57" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H58" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I58" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I59" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I60" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H61" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I61" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H62" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I62" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H63" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I63" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H64" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I64" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H65" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I65" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H66" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I66" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H67" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I67" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H68" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I68" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H69" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I69" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H70" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I70" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H71" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I71" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H72" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I72" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H73" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I73" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H74" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I74" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H75" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I75" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I76" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H77" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I77" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H78" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I78" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H79" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I79" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H80" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I80" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H81" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I81" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H82" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I82" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I83" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H84" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I84" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I85" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H86" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I86" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H87" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I87" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H88" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I88" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H89" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I89" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H90" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I90" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H91" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I91" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H92" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I92" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H93" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I93" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H94" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I94" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H95" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I95" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H96" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I96" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H97" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I97" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H98" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I98" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H99" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I99" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H100" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I100" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H101" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I101" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H102" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I102" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H103" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I103" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H104" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I104" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H105" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I105" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H106" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I106" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H107" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I107" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H108" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H109" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I109" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H110" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I110" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="111" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H111" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I111" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="112" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H112" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I112" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I113" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H114" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I114" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H115" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I115" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="116" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H116" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I116" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="117" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H117" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I117" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H118" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I118" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="119" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H119" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I119" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="120" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H120" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I120" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="121" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H121" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I121" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="122" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H122" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I122" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="123" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H123" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I123" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="124" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H124" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I124" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="125" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I125" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="126" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H126" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I126" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="127" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H127" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I127" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="128" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H128" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I128" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="129" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H129" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I129" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="130" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H130" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I130" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="131" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H131" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I131" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="132" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H132" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I132" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="133" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H133" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I133" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="134" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H134" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I134" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="135" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H135" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I135" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="136" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H136" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I136" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="137" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H137" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I137" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="138" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H138" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I138" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="139" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H139" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I139" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H140" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I140" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="141" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H141" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I141" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="142" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H142" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I142" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="143" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H143" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I143" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="144" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H144" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I144" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="145" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H145" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I145" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="146" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H146" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I146" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="147" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H147" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I147" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="148" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H148" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I148" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="149" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H149" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I149" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="150" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H150" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I150" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="151" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H151" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I151" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="152" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H152" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I152" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="153" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H153" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I153" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="154" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H154" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I154" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="155" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H155" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I155" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="156" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H156" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I156" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="157" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H157" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I157" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H158" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I158" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="159" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H159" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I159" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="160" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H160" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I160" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="161" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H161" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I161" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="162" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H162" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I162" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="163" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H163" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I163" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="164" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H164" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I164" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="165" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H165" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I165" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="166" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H166" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I166" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="167" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H167" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I167" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="168" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H168" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I168" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="169" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H169" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I169" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="170" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H170" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I170" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="171" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H171" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I171" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="172" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H172" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I172" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="173" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H173" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I173" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="174" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H174" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I174" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="175" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H175" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I175" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="176" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H176" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I176" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="177" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H177" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I177" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="178" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H178" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I178" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="179" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H179" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I179" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="180" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H180" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I180" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="181" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H181" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I181" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="182" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H182" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I182" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="183" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H183" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I183" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="184" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H184" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I184" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="185" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H185" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I185" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="186" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H186" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I186" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="187" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H187" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I187" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="188" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H188" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I188" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="189" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H189" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I189" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="190" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H190" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I190" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="191" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H191" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I191" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="192" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H192" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I192" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="193" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H193" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I193" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="194" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H194" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I194" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="195" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H195" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I195" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="196" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H196" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I196" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="197" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H197" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I197" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="198" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H198" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I198" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="199" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H199" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I199" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="200" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H200" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I200" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="201" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H201" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I201" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="202" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H202" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I202" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="203" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H203" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I203" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="204" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H204" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I204" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="205" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H205" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I205" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="206" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H206" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I206" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="207" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H207" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I207" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="208" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H208" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I208" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="209" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H209" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I209" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="210" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H210" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I210" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="211" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H211" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I211" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="212" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H212" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I212" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="213" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H213" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I213" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="214" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H214" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I214" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="215" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H215" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I215" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="216" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H216" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I216" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="217" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H217" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I217" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="218" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H218" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I218" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="219" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H219" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="220" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H220" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="221" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H221" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="222" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H222" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="223" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H223" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="224" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H224" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="225" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H225" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="226" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H226" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="227" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H227" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="228" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H228" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="229" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H229" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="230" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H230" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="231" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H231" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="232" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H232" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="233" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H233" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="234" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H234" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="235" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H235" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="236" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H236" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="237" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H237" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="238" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H238" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="239" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H239" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="240" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H240" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="241" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H241" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="242" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H242" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="243" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H243" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="244" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H244" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="245" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H245" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="246" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H246" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="247" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H247" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="248" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H248" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="249" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H249" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="250" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H250" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="251" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H251" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="252" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H252" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="253" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H253" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="254" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H254" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="255" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H255" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="256" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H256" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="257" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H257" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="258" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H258" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="259" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H259" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="260" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H260" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="261" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H261" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="262" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H262" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="263" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H263" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="264" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H264" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="265" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H265" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="266" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H266" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="267" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H267" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="268" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H268" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="269" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H269" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="270" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H270" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="271" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H271" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="272" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H272" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="273" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H273" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="274" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H274" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="275" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H275" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="276" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H276" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="277" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H277" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="278" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H278" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="279" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H279" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="280" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H280" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="281" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H281" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="282" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H282" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="283" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H283" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -21928,7 +22210,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22015,19 +22297,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -22036,7 +22318,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -22058,7 +22340,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -22126,8 +22408,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A10" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22430,19 +22712,19 @@
         <v>396</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E13" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="G13" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="H13" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H13" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I13" s="66" t="s">
         <v>389</v>
@@ -22451,7 +22733,7 @@
         <v>315</v>
       </c>
       <c r="K13" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L13" s="68" t="s">
         <v>390</v>
@@ -22460,7 +22742,7 @@
     <row r="14" spans="1:12" s="10" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="18" t="s">
@@ -22470,16 +22752,16 @@
         <v>391</v>
       </c>
       <c r="F14" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="H14" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="I14" s="79" t="s">
         <v>427</v>
-      </c>
-      <c r="I14" s="79" t="s">
-        <v>428</v>
       </c>
       <c r="J14" s="79"/>
       <c r="K14" s="19" t="s">
@@ -22494,7 +22776,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="18" t="s">
@@ -22504,16 +22786,16 @@
         <v>391</v>
       </c>
       <c r="F15" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="I15" s="18" t="s">
         <v>432</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>433</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="19" t="s">
@@ -22528,24 +22810,24 @@
         <v>70</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="18" t="s">
         <v>210</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F16" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>435</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>436</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="19" t="s">
@@ -22556,7 +22838,7 @@
     <row r="17" spans="1:12" s="10" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="18" t="s">
@@ -22566,16 +22848,16 @@
         <v>391</v>
       </c>
       <c r="F17" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="G17" s="77" t="s">
         <v>439</v>
       </c>
-      <c r="G17" s="77" t="s">
+      <c r="H17" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="I17" s="77" t="s">
         <v>441</v>
-      </c>
-      <c r="I17" s="77" t="s">
-        <v>442</v>
       </c>
       <c r="J17" s="77"/>
       <c r="K17" s="19" t="s">
@@ -22586,7 +22868,7 @@
     <row r="18" spans="1:12" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="18" t="s">
@@ -22596,13 +22878,13 @@
         <v>391</v>
       </c>
       <c r="F18" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="H18" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>446</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -22616,7 +22898,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="18" t="s">
@@ -22626,16 +22908,16 @@
         <v>391</v>
       </c>
       <c r="F19" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>450</v>
-      </c>
       <c r="H19" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="19" t="s">
@@ -22647,7 +22929,7 @@
     </row>
     <row r="20" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A20" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B20" s="98"/>
       <c r="C20" s="98"/>
@@ -22716,7 +22998,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22802,19 +23084,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -22823,7 +23105,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -22845,7 +23127,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -22914,7 +23196,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23001,19 +23283,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -23022,7 +23304,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -23044,7 +23326,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -23113,7 +23395,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23199,19 +23481,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -23220,7 +23502,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -23242,7 +23524,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -23311,7 +23593,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD39"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23602,19 +23884,19 @@
         <v>396</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E13" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="G13" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="H13" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H13" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I13" s="66" t="s">
         <v>389</v>
@@ -23623,7 +23905,7 @@
         <v>315</v>
       </c>
       <c r="K13" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L13" s="68" t="s">
         <v>390</v>
@@ -23645,7 +23927,7 @@
     </row>
     <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A15" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B15" s="98"/>
       <c r="C15" s="98"/>
@@ -23719,8 +24001,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD38"/>
+    <sheetView topLeftCell="A19" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24173,19 +24455,19 @@
         <v>396</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E19" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="G19" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="H19" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H19" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I19" s="66" t="s">
         <v>389</v>
@@ -24194,7 +24476,7 @@
         <v>315</v>
       </c>
       <c r="K19" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L19" s="68" t="s">
         <v>390</v>
@@ -24216,7 +24498,7 @@
     </row>
     <row r="21" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A21" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B21" s="98"/>
       <c r="C21" s="98"/>
@@ -24284,7 +24566,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD53"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24384,19 +24666,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -24405,7 +24687,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -24426,7 +24708,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -24497,7 +24779,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24583,19 +24865,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -24604,7 +24886,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -24626,7 +24908,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -24694,7 +24976,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24779,19 +25061,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -24800,7 +25082,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -24822,7 +25104,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -24893,10 +25175,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="A10:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25080,7 +25362,7 @@
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="94" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
@@ -25108,19 +25390,19 @@
         <v>396</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E9" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="G9" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="H9" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H9" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I9" s="66" t="s">
         <v>389</v>
@@ -25129,46 +25411,268 @@
         <v>315</v>
       </c>
       <c r="K9" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L9" s="68" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>951</v>
+      </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>954</v>
+      </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" s="38" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="97" t="s">
-        <v>400</v>
-      </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
+      <c r="K10" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="L11" s="64" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>962</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
+        <v>963</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>955</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>964</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>963</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>970</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="97" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A18:L18"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:J7">
     <cfRule type="iconSet" priority="2">
@@ -25179,7 +25683,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:J11">
+  <conditionalFormatting sqref="A18:J18">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -25189,7 +25693,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K17">
       <formula1>"Open, Under discussion, Design closed- Pending key in, Key in pending clarification, Key in completed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -25210,7 +25714,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD29"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25297,19 +25801,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -25318,7 +25822,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -25340,7 +25844,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -25412,7 +25916,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD31"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25499,19 +26003,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -25520,7 +26024,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -25542,7 +26046,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -25614,7 +26118,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD34"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25701,19 +26205,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -25722,7 +26226,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -25744,7 +26248,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -25815,8 +26319,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25903,19 +26407,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -25924,7 +26428,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -25933,26 +26437,26 @@
     <row r="6" spans="1:12" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>465</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>466</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="19" t="s">
@@ -25965,26 +26469,26 @@
     <row r="7" spans="1:12" s="38" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
         <v>349</v>
       </c>
       <c r="E7" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>464</v>
-      </c>
       <c r="H7" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>467</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>468</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19" t="s">
@@ -25997,26 +26501,26 @@
     <row r="8" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F8" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>470</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>471</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="19" t="s">
@@ -26029,23 +26533,23 @@
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F9" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>473</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -26061,19 +26565,19 @@
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F10" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>475</v>
-      </c>
       <c r="H10" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -26087,23 +26591,23 @@
     <row r="11" spans="1:12" ht="114" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F11" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>477</v>
-      </c>
       <c r="H11" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -26117,23 +26621,23 @@
     <row r="12" spans="1:12" ht="114" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -26147,26 +26651,26 @@
     <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
       <c r="B13" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42" t="s">
         <v>351</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G13" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="I13" s="42" t="s">
         <v>480</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>481</v>
       </c>
       <c r="J13" s="42"/>
       <c r="K13" s="19" t="s">
@@ -26179,23 +26683,23 @@
     <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="s">
         <v>353</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G14" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>482</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>483</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -26209,20 +26713,20 @@
     <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="F15" s="19" t="s">
+      <c r="G15" s="19" t="s">
         <v>456</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>457</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>52</v>
@@ -26239,23 +26743,23 @@
     <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="H16" s="19" t="s">
         <v>485</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>486</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -26269,23 +26773,23 @@
     <row r="17" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="H17" s="19" t="s">
         <v>489</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>490</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
@@ -26299,26 +26803,26 @@
     <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F18" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="H18" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="I18" s="19" t="s">
         <v>493</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>494</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19" t="s">
@@ -26331,23 +26835,23 @@
     <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="86"/>
       <c r="B19" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F19" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="H19" s="19" t="s">
         <v>496</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>497</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
@@ -26361,23 +26865,23 @@
     <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F20" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>499</v>
-      </c>
       <c r="H20" s="19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -26391,23 +26895,23 @@
     <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F21" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>501</v>
-      </c>
       <c r="H21" s="19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
@@ -26421,23 +26925,23 @@
     <row r="22" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="G22" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="H22" s="19" t="s">
         <v>504</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>505</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
@@ -26451,23 +26955,23 @@
     <row r="23" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F23" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>507</v>
-      </c>
       <c r="H23" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
@@ -26480,7 +26984,7 @@
     </row>
     <row r="24" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A24" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B24" s="98"/>
       <c r="C24" s="98"/>
@@ -26747,7 +27251,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26843,19 +27347,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -26864,7 +27368,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -26886,7 +27390,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="99" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="100"/>
       <c r="C7" s="100"/>
@@ -26971,7 +27475,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD36"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27218,19 +27722,19 @@
         <v>396</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E11" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="G11" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="H11" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I11" s="66" t="s">
         <v>389</v>
@@ -27239,7 +27743,7 @@
         <v>315</v>
       </c>
       <c r="K11" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L11" s="68" t="s">
         <v>390</v>
@@ -27261,7 +27765,7 @@
     </row>
     <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A13" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B13" s="98"/>
       <c r="C13" s="98"/>
@@ -27327,7 +27831,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28067,19 +28571,19 @@
         <v>396</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E30" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F30" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="G30" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="H30" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H30" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I30" s="66" t="s">
         <v>389</v>
@@ -28088,7 +28592,7 @@
         <v>315</v>
       </c>
       <c r="K30" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L30" s="68" t="s">
         <v>390</v>
@@ -28097,55 +28601,55 @@
     <row r="31" spans="1:12" s="63" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A31" s="73"/>
       <c r="B31" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="G31" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="H31" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="I31" s="18" t="s">
         <v>414</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>415</v>
       </c>
       <c r="J31" s="18"/>
       <c r="K31" s="19" t="s">
         <v>392</v>
       </c>
       <c r="L31" s="72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="70" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="73"/>
       <c r="B32" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>417</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>418</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -28153,12 +28657,12 @@
         <v>392</v>
       </c>
       <c r="L32" s="72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A33" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B33" s="98"/>
       <c r="C33" s="98"/>
@@ -28228,8 +28732,8 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A13" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28615,19 +29119,19 @@
         <v>396</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E16" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F16" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="G16" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="H16" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H16" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I16" s="66" t="s">
         <v>389</v>
@@ -28636,7 +29140,7 @@
         <v>315</v>
       </c>
       <c r="K16" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L16" s="68" t="s">
         <v>390</v>
@@ -28658,7 +29162,7 @@
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B18" s="98"/>
       <c r="C18" s="98"/>
@@ -28728,7 +29232,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28814,19 +29318,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -28835,7 +29339,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -28856,7 +29360,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -28912,7 +29416,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29003,19 +29507,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -29024,7 +29528,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -29047,7 +29551,7 @@
     </row>
     <row r="7" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -29119,7 +29623,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD70"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29209,19 +29713,19 @@
         <v>396</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>389</v>
@@ -29230,7 +29734,7 @@
         <v>315</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>390</v>
@@ -29252,7 +29756,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -29319,28 +29823,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="edf2a6e0-c224-4379-b040-c0d27f202806"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="edf2a6e0-c224-4379-b040-c0d27f202806">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C2C77B5AD488E4CA3401BB851DA8F51" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="223d7e4ab63468bde3715d769cc3a816">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="edf2a6e0-c224-4379-b040-c0d27f202806" xmlns:ns3="477a9085-76e5-4a6d-ad26-0b243e6286ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dc2c8f2c6a5c0ef7a6eb9939a9c3f89" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -29542,33 +30024,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B0F2D9-DDDF-4F8A-B5F8-60EDBD85A0C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="edf2a6e0-c224-4379-b040-c0d27f202806"/>
-    <ds:schemaRef ds:uri="477a9085-76e5-4a6d-ad26-0b243e6286ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3005-891C-48C8-A290-AC0A3F004627}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="edf2a6e0-c224-4379-b040-c0d27f202806"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="edf2a6e0-c224-4379-b040-c0d27f202806">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88821413-159B-4D6C-A963-9D0584001C35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29586,4 +30064,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3005-891C-48C8-A290-AC0A3F004627}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B0F2D9-DDDF-4F8A-B5F8-60EDBD85A0C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="edf2a6e0-c224-4379-b040-c0d27f202806"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="477a9085-76e5-4a6d-ad26-0b243e6286ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>